--- a/その他/55_開発体験シート.xlsx
+++ b/その他/55_開発体験シート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79B653E-2607-4145-8F16-1DFEEA949627}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E74C12-251E-4A80-8ED1-F7E435B4A36D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="0" windowWidth="16245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開発体験シート" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="66">
   <si>
     <t>実装</t>
     <rPh sb="0" eb="2">
@@ -583,16 +583,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一人では解決ができなかった。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒトリ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カイケツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レビューの進行は行ったがもたもたやってしまった</t>
     <rPh sb="5" eb="7">
       <t>シンコウ</t>
@@ -634,6 +624,16 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役割分担が容易</t>
+    <rPh sb="0" eb="4">
+      <t>ヤクワリブンタン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -688,7 +688,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1140,13 +1140,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1365,6 +1393,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1841,10 +1878,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1899,13 +1936,15 @@
       <c r="F9" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="H9" s="51" t="str">
         <f>IF(COUNTIF(E9:G9,"*●*"),"●",IF(COUNTIF(E9:G9,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1922,7 +1961,9 @@
       <c r="F10" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="39"/>
+      <c r="G10" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H10" s="39" t="str">
         <f t="shared" ref="H10:H37" si="0">IF(COUNTIF(E10:G10,"*●*"),"●",IF(COUNTIF(E10:G10,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -1943,10 +1984,12 @@
       <c r="F11" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="40" t="s">
+        <v>59</v>
+      </c>
       <c r="H11" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I11" s="13"/>
     </row>
@@ -1961,12 +2004,14 @@
         <v>31</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F12" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="42"/>
+      <c r="G12" s="42" t="s">
+        <v>59</v>
+      </c>
       <c r="H12" s="51" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -1982,12 +2027,14 @@
         <v>50</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F13" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="39"/>
+      <c r="G13" s="39" t="s">
+        <v>59</v>
+      </c>
       <c r="H13" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2031,7 +2078,9 @@
       <c r="F15" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="42"/>
+      <c r="G15" s="42" t="s">
+        <v>59</v>
+      </c>
       <c r="H15" s="51" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2054,7 +2103,9 @@
       <c r="F16" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="39"/>
+      <c r="G16" s="39" t="s">
+        <v>59</v>
+      </c>
       <c r="H16" s="39" t="str">
         <f>IF(COUNTIF(E16:G16,"*●*"),"●",IF(COUNTIF(E16:G16,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2100,12 +2151,16 @@
       <c r="F18" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="38"/>
+      <c r="G18" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="H18" s="51" t="str">
         <f>IF(COUNTIF(E18:G18,"*●*"),"●",IF(COUNTIF(E18:G18,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="19" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="62"/>
@@ -2119,7 +2174,9 @@
       <c r="F19" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="40"/>
+      <c r="G19" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="H19" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2142,14 +2199,18 @@
       <c r="F20" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="42"/>
+      <c r="G20" s="42" t="s">
+        <v>59</v>
+      </c>
       <c r="H20" s="51" t="str">
         <f>IF(COUNTIF(E20:G20,"*●*"),"●",IF(COUNTIF(E20:G20,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I20" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="61"/>
       <c r="C21" s="18"/>
       <c r="D21" s="20" t="s">
@@ -2161,7 +2222,9 @@
       <c r="F21" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="39"/>
+      <c r="G21" s="39" t="s">
+        <v>59</v>
+      </c>
       <c r="H21" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2182,14 +2245,18 @@
       <c r="F22" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="39"/>
+      <c r="G22" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H22" s="53" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I22" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="61"/>
       <c r="C23" s="23"/>
       <c r="D23" s="20" t="s">
@@ -2201,16 +2268,16 @@
       <c r="F23" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39" t="str">
+      <c r="G23" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="41" t="str">
         <f>IF(COUNTIF(E23:G23,"*●*"),"●",IF(COUNTIF(E23:G23,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I23" s="73"/>
+    </row>
+    <row r="24" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="61"/>
       <c r="C24" s="22" t="s">
         <v>1</v>
@@ -2224,12 +2291,14 @@
       <c r="F24" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39" t="str">
+      <c r="G24" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="75" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
-      </c>
-      <c r="I24" s="9"/>
+        <v>●</v>
+      </c>
+      <c r="I24" s="74"/>
     </row>
     <row r="25" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="62"/>
@@ -2243,10 +2312,12 @@
       <c r="F25" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="40"/>
+      <c r="G25" s="40" t="s">
+        <v>59</v>
+      </c>
       <c r="H25" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I25" s="6"/>
     </row>
@@ -2266,13 +2337,15 @@
       <c r="F26" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="42"/>
+      <c r="G26" s="42" t="s">
+        <v>59</v>
+      </c>
       <c r="H26" s="51" t="str">
         <f>IF(COUNTIF(E26:G26,"*●*"),"●",IF(COUNTIF(E26:G26,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2287,13 +2360,15 @@
       <c r="F27" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="39"/>
+      <c r="G27" s="39" t="s">
+        <v>59</v>
+      </c>
       <c r="H27" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2308,7 +2383,9 @@
       <c r="F28" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="40"/>
+      <c r="G28" s="40" t="s">
+        <v>59</v>
+      </c>
       <c r="H28" s="42" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2331,10 +2408,12 @@
       <c r="F29" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="42"/>
+      <c r="G29" s="42" t="s">
+        <v>59</v>
+      </c>
       <c r="H29" s="51" t="str">
         <f>IF(COUNTIF(E29:G29,"*●*"),"●",IF(COUNTIF(E29:G29,"*○*"),"○","－"))</f>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I29" s="4"/>
     </row>
@@ -2350,7 +2429,9 @@
       <c r="F30" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="39"/>
+      <c r="G30" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H30" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2369,7 +2450,9 @@
       <c r="F31" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="39"/>
+      <c r="G31" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H31" s="53" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2390,7 +2473,9 @@
       <c r="F32" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="39"/>
+      <c r="G32" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H32" s="39" t="str">
         <f>IF(COUNTIF(E32:G32,"*●*"),"●",IF(COUNTIF(E32:G32,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2409,7 +2494,9 @@
       <c r="F33" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="39"/>
+      <c r="G33" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H33" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2428,10 +2515,12 @@
       <c r="F34" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="39"/>
+      <c r="G34" s="39" t="s">
+        <v>59</v>
+      </c>
       <c r="H34" s="53" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I34" s="9"/>
     </row>
@@ -2449,10 +2538,12 @@
       <c r="F35" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41" t="s">
+        <v>59</v>
+      </c>
       <c r="H35" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I35" s="5"/>
     </row>
@@ -2468,10 +2559,12 @@
       <c r="F36" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G36" s="39"/>
+      <c r="G36" s="39" t="s">
+        <v>59</v>
+      </c>
       <c r="H36" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I36" s="9"/>
     </row>
@@ -2487,10 +2580,12 @@
       <c r="F37" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="40"/>
+      <c r="G37" s="40" t="s">
+        <v>59</v>
+      </c>
       <c r="H37" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I37" s="13"/>
     </row>
@@ -2529,12 +2624,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2704,6 +2793,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
   <ds:schemaRefs>
@@ -2713,15 +2808,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86AE9809-2BDF-4F5B-96B6-1BE2B508A423}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2737,4 +2823,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>